--- a/biology/Histoire de la zoologie et de la botanique/Kurt_Harz/Kurt_Harz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kurt_Harz/Kurt_Harz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kurt Harz, né le 22 mars 1915 à Munich et mort le 20 septembre 1996 à Rothenburg ob der Tauber, est un entomologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atteint par la poliomyélite à l'âge de cinq ans il en garde une paralysie et se déplace en fauteuil roulant.
 Il a un fils de sa première femme, devient veuf en 1953, se remarie en 1955 et a un autre fils de sa seconde épouse.
@@ -545,7 +559,9 @@
           <t>Travaux et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a publié plus de 200 articles sur les insectes.
 </t>
@@ -576,7 +592,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1959 il est décoré de la médaille Fabricius.
 Il est fait docteur honoris causa de la faculté de Munich en 1982.
@@ -608,7 +626,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne doit pas être confondu avec le botaniste Kurt Harz (1858-1939).
 </t>
